--- a/etc/2022-11.xlsx
+++ b/etc/2022-11.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evgeny/Projects/tsn/electricity/etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01254B3A-9BC5-224A-9354-CD8E95724F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843751B2-BB5D-4A43-847A-4D9F8372FA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="11900" windowWidth="38400" windowHeight="9700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8300" windowWidth="28800" windowHeight="9700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportUm40RtuData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="80000" iterateDelta="0"/>
+  <calcPr calcId="191029" iterateDelta="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1394,8 +1402,8 @@
   </sheetPr>
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H138" sqref="H138:J138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
